--- a/docs/DAC readings.xlsx
+++ b/docs/DAC readings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NeurotechHub\Programming\Solar_ControllerV3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58785946-6EA6-4B84-A9D1-FE2ABBB535F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1BF475-6944-44C2-A2BF-1DA07CC62DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D97DEC67-9B03-4672-A129-EAEAC805CF9C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="6">
+  <futureMetadata name="XLRICHVALUE" count="7">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -84,8 +84,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="6">
+  <valueMetadata count="7">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -103,13 +110,16 @@
     </bk>
     <bk>
       <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>DAC</t>
   </si>
@@ -211,6 +221,9 @@
   </si>
   <si>
     <t>5 to 7</t>
+  </si>
+  <si>
+    <t>Reading from device on disk</t>
   </si>
 </sst>
 </file>
@@ -298,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -330,6 +343,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,7 +412,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -421,6 +437,10 @@
     <v>5</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -441,6 +461,7 @@
   <rel r:id="rId4"/>
   <rel r:id="rId5"/>
   <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
 </richValueRels>
 </file>
 
@@ -761,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99585495-23B6-4C27-9800-206903FAF67A}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +920,32 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>1840</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1" xr:uid="{96AD9273-C63E-4BA2-98F1-812A16FC7596}"/>
